--- a/src/main/resources/fileTemplate/templatePhieuThu.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuThu.xlsx
@@ -240,51 +240,9 @@
     <t>${vtReceiptDetail.diaChiNguoiGui}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Người nhận:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>${vtReceiptDetail.tenNguoiNhan}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Địa chỉ giao hàng:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>${vtReceiptDetail.diaChiNguoiNhan}</t>
   </si>
   <si>
@@ -292,6 +250,12 @@
   </si>
   <si>
     <t>${vtReceiptDetail.nguoiThanhToan}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người nhận: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ giao hàng: </t>
   </si>
 </sst>
 </file>
@@ -439,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,33 +434,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -831,7 +789,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,80 +869,83 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="20" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="14" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="6"/>
@@ -1080,20 +1041,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/templatePhieuThu.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuThu.xlsx
@@ -435,26 +435,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,39 +797,36 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
         <v>9</v>
@@ -839,12 +836,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4" t="s">
         <v>10</v>
@@ -854,12 +851,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
         <v>11</v>
@@ -869,82 +866,82 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1041,6 +1038,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
@@ -1050,11 +1052,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/templatePhieuThu.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuThu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Giấy tờ kèm theo</t>
-  </si>
-  <si>
     <t>Lưu ý:</t>
   </si>
   <si>
@@ -266,20 +263,13 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -357,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -389,72 +379,60 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -786,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,259 +777,248 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="D13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="2:8" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:8" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:9" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/templatePhieuThu.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuThu.xlsx
@@ -384,25 +384,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,9 +405,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -422,17 +420,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,7 +774,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,202 +789,208 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="3" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="15" t="s">
         <v>25</v>
       </c>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="3" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="3" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="13" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -992,33 +1005,36 @@
       </c>
     </row>
     <row r="17" spans="2:8" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:8" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="2:8" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:G5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="B3:F5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/templatePhieuThu.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuThu.xlsx
@@ -42,6 +42,120 @@
     <t>${item.receiptCode}</t>
   </si>
   <si>
+    <t>PHIẾU THU</t>
+  </si>
+  <si>
+    <t>Số:</t>
+  </si>
+  <si>
+    <t>Ngày:</t>
+  </si>
+  <si>
+    <t>Kho tiếp nhận:</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Số Biên nhận</t>
+  </si>
+  <si>
+    <t>Ngày biên nhận</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Trọng lượng</t>
+  </si>
+  <si>
+    <t>Kích thước</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Lưu ý:</t>
+  </si>
+  <si>
+    <t>­ Số tiền trên chưa bao gồm VAT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">­ Quý Khách hàng gửi phiếu thu về phòng kế toán công ty trong vòng 15 ngày để đổi hóa đơn. </t>
+  </si>
+  <si>
+    <t>Công ty vận chuyển</t>
+  </si>
+  <si>
+    <t>${ngayLap}</t>
+  </si>
+  <si>
+    <t>${vtReceiptDetail.stockName}</t>
+  </si>
+  <si>
+    <t>${maPhieuThu}</t>
+  </si>
+  <si>
+    <t>${item.strGenDate}</t>
+  </si>
+  <si>
+    <t>${item.numbers}</t>
+  </si>
+  <si>
+    <t>${item.weight}</t>
+  </si>
+  <si>
+    <t>${item.sizes}</t>
+  </si>
+  <si>
+    <t>${item.cost}</t>
+  </si>
+  <si>
+    <t>${item.note}&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>Người gửi:</t>
+  </si>
+  <si>
+    <t>${vtReceiptDetail.tenNguoiGui}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện thoại: </t>
+  </si>
+  <si>
+    <t>${vtReceiptDetail.sdtNguoiGui}</t>
+  </si>
+  <si>
+    <t>Điện thoại:</t>
+  </si>
+  <si>
+    <t>${vtReceiptDetail.sdtNguoiNhan}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ lấy hàng: </t>
+  </si>
+  <si>
+    <t>${vtReceiptDetail.diaChiNguoiGui}</t>
+  </si>
+  <si>
+    <t>${vtReceiptDetail.tenNguoiNhan}</t>
+  </si>
+  <si>
+    <t>${vtReceiptDetail.diaChiNguoiNhan}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người thanh toán: </t>
+  </si>
+  <si>
+    <t>${vtReceiptDetail.nguoiThanhToan}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người nhận: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ giao hàng: </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -50,7 +164,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">CÔNG TY TNHH GIAO NHẬN &amp; VẬN TẢI TỐC ĐỘ VIỆT NAM </t>
+      <t xml:space="preserve">CÔNG TY TNHH GIAO NHẬN &amp; VẬN TẢI TỐC ĐỘ VIỆT NAM  </t>
     </r>
     <r>
       <rPr>
@@ -79,7 +193,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Số 9, ngách 20/2 phố Nghĩa Đô, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội
+      <t xml:space="preserve">Số 9, ngách 20/2 phố Nghĩa Đô, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội  
 </t>
     </r>
     <r>
@@ -137,122 +251,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> www.stlvietnam.vn</t>
+      <t xml:space="preserve"> www.stlvietnam.vn  
+</t>
     </r>
-  </si>
-  <si>
-    <t>PHIẾU THU</t>
-  </si>
-  <si>
-    <t>Số:</t>
-  </si>
-  <si>
-    <t>Ngày:</t>
-  </si>
-  <si>
-    <t>Kho tiếp nhận:</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Số Biên nhận</t>
-  </si>
-  <si>
-    <t>Ngày biên nhận</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>Trọng lượng</t>
-  </si>
-  <si>
-    <t>Kích thước</t>
-  </si>
-  <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
-    <t>Lưu ý:</t>
-  </si>
-  <si>
-    <t>­ Số tiền trên chưa bao gồm VAT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">­ Quý Khách hàng gửi phiếu thu về phòng kế toán công ty trong vòng 15 ngày để đổi hóa đơn. </t>
-  </si>
-  <si>
-    <t>Công ty vận chuyển</t>
-  </si>
-  <si>
-    <t>${ngayLap}</t>
-  </si>
-  <si>
-    <t>${vtReceiptDetail.stockName}</t>
-  </si>
-  <si>
-    <t>${maPhieuThu}</t>
-  </si>
-  <si>
-    <t>${item.strGenDate}</t>
-  </si>
-  <si>
-    <t>${item.numbers}</t>
-  </si>
-  <si>
-    <t>${item.weight}</t>
-  </si>
-  <si>
-    <t>${item.sizes}</t>
-  </si>
-  <si>
-    <t>${item.cost}</t>
-  </si>
-  <si>
-    <t>${item.note}&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
-    <t>Người gửi:</t>
-  </si>
-  <si>
-    <t>${vtReceiptDetail.tenNguoiGui}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điện thoại: </t>
-  </si>
-  <si>
-    <t>${vtReceiptDetail.sdtNguoiGui}</t>
-  </si>
-  <si>
-    <t>Điện thoại:</t>
-  </si>
-  <si>
-    <t>${vtReceiptDetail.sdtNguoiNhan}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa chỉ lấy hàng: </t>
-  </si>
-  <si>
-    <t>${vtReceiptDetail.diaChiNguoiGui}</t>
-  </si>
-  <si>
-    <t>${vtReceiptDetail.tenNguoiNhan}</t>
-  </si>
-  <si>
-    <t>${vtReceiptDetail.diaChiNguoiNhan}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người thanh toán: </t>
-  </si>
-  <si>
-    <t>${vtReceiptDetail.nguoiThanhToan}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người nhận: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa chỉ giao hàng: </t>
   </si>
 </sst>
 </file>
@@ -347,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -379,12 +380,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,9 +428,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -405,41 +436,53 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -773,271 +816,267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="H8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="16" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:8" s="7" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:8" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B3:F5"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>